--- a/GENeSYS-MOD_User_Input_Settings_v05_joh_19-09-2023.xlsx
+++ b/GENeSYS-MOD_User_Input_Settings_v05_joh_19-09-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dozeumhaj\Documents\GENeSYS_MOD.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5DA799-2C8E-4058-A387-3258C44DF2AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A92D0-5909-455B-B0E0-2334BE45C0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{0B764928-35F8-4A30-ADCD-C0369050184D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B764928-35F8-4A30-ADCD-C0369050184D}"/>
   </bookViews>
   <sheets>
     <sheet name="Region_selection" sheetId="1" r:id="rId1"/>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A667788-FC3C-4C43-9E46-ED47A2AEE749}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,90 +1599,144 @@
       <c r="A42" t="s">
         <v>263</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>264</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>265</v>
       </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>266</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>267</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>268</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>280</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D817F8-1014-4E28-A827-54661E8BA006}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>

--- a/GENeSYS-MOD_User_Input_Settings_v05_joh_19-09-2023.xlsx
+++ b/GENeSYS-MOD_User_Input_Settings_v05_joh_19-09-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dozeumhaj\Documents\GENeSYS_MOD.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A92D0-5909-455B-B0E0-2334BE45C0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2C45C-4216-4BDE-B19B-60D6D96EB61E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B764928-35F8-4A30-ADCD-C0369050184D}"/>
   </bookViews>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A667788-FC3C-4C43-9E46-ED47A2AEE749}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1432,7 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
         <v>30</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>31</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>33</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>35</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>36</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">

--- a/GENeSYS-MOD_User_Input_Settings_v05_joh_19-09-2023.xlsx
+++ b/GENeSYS-MOD_User_Input_Settings_v05_joh_19-09-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dozeumhaj\Documents\GENeSYS_MOD.data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nim\Documents\GENeSYS_MOD.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC2C45C-4216-4BDE-B19B-60D6D96EB61E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D06A49-DB2D-41D2-828D-F458700129FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B764928-35F8-4A30-ADCD-C0369050184D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0B764928-35F8-4A30-ADCD-C0369050184D}"/>
   </bookViews>
   <sheets>
     <sheet name="Region_selection" sheetId="1" r:id="rId1"/>
@@ -504,9 +504,6 @@
     <t>RES_PV_Utility_Opt</t>
   </si>
   <si>
-    <t>Res_PV_Utility_Tracking</t>
-  </si>
-  <si>
     <t>RES_Residues</t>
   </si>
   <si>
@@ -889,6 +886,9 @@
   </si>
   <si>
     <t>X_SOEC_Electrolysis</t>
+  </si>
+  <si>
+    <t>RES_PV_Utility_Tracking</t>
   </si>
 </sst>
 </file>
@@ -932,17 +932,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -958,7 +956,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1256,18 +1254,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A667788-FC3C-4C43-9E46-ED47A2AEE749}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1275,10 +1273,10 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
@@ -1597,7 +1595,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1605,7 +1603,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1613,7 +1611,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1621,7 +1619,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1629,7 +1627,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1637,7 +1635,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1645,7 +1643,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1653,7 +1651,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1661,7 +1659,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1669,7 +1667,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1677,7 +1675,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1685,7 +1683,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1693,7 +1691,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1701,7 +1699,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1709,7 +1707,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1717,7 +1715,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1725,7 +1723,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1733,7 +1731,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1748,21 +1746,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5D2E10-6D88-4A1E-9C1A-BD9E15FD6A9D}">
   <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:A148"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2695,7 +2693,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -2703,7 +2701,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2711,7 +2709,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -2719,7 +2717,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -2727,7 +2725,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2735,7 +2733,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -2743,7 +2741,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -2751,7 +2749,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2759,7 +2757,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -2767,7 +2765,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -2775,7 +2773,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2783,7 +2781,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2791,7 +2789,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2799,7 +2797,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2807,7 +2805,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2815,7 +2813,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2823,7 +2821,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2831,7 +2829,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2839,7 +2837,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2847,7 +2845,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2855,7 +2853,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2863,7 +2861,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -2871,7 +2869,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -2879,7 +2877,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -2887,7 +2885,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -2895,7 +2893,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -2903,7 +2901,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -2911,31 +2909,31 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="A146" t="s">
+        <v>280</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>281</v>
       </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>282</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -2959,19 +2957,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2979,7 +2977,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2987,7 +2985,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2995,7 +2993,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3003,7 +3001,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3011,7 +3009,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3019,7 +3017,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3027,7 +3025,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3046,19 +3044,19 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3066,7 +3064,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3074,7 +3072,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3082,7 +3080,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3090,7 +3088,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3098,7 +3096,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3106,7 +3104,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3114,7 +3112,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3122,7 +3120,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3130,7 +3128,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3138,7 +3136,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3146,7 +3144,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3154,7 +3152,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3162,7 +3160,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3170,7 +3168,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3178,7 +3176,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3186,7 +3184,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3194,7 +3192,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3202,7 +3200,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3210,7 +3208,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3218,7 +3216,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3226,7 +3224,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3234,7 +3232,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3242,7 +3240,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3250,7 +3248,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3258,7 +3256,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3266,7 +3264,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3274,7 +3272,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3282,7 +3280,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3290,7 +3288,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3317,14 +3315,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,19 +3370,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3403,19 +3401,19 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3423,7 +3421,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3431,7 +3429,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3439,7 +3437,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3447,7 +3445,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3455,7 +3453,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3463,7 +3461,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3471,7 +3469,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3479,7 +3477,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3487,7 +3485,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3495,7 +3493,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3503,7 +3501,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3511,7 +3509,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3519,7 +3517,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3527,7 +3525,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3535,7 +3533,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3543,7 +3541,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3551,7 +3549,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3570,19 +3568,19 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3590,7 +3588,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3598,7 +3596,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3606,7 +3604,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3614,7 +3612,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3622,7 +3620,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3630,7 +3628,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3638,7 +3636,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3657,11 +3655,11 @@
       <selection activeCell="F26" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>38</v>
